--- a/Employee_Reports29/Alvin Quizon Tabasa Q0433.xlsx
+++ b/Employee_Reports29/Alvin Quizon Tabasa Q0433.xlsx
@@ -18,13 +18,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
@@ -74,13 +78,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -448,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,8 +461,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="32" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
@@ -532,6 +536,27 @@
           <t>REMARKS</t>
         </is>
       </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr"/>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>YOU ARE LISTED AS ; SUPERVISOR</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>&amp; THIS IS YOUR TRAINING DASHBOARD</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr"/>
+      <c r="F3" s="3" t="inlineStr"/>
+      <c r="G3" s="3" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr"/>
+      <c r="I3" s="3" t="inlineStr"/>
+      <c r="J3" s="3" t="inlineStr"/>
+      <c r="K3" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -605,114 +630,114 @@
       <c r="G2" s="2" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>22R1 Reefer Container</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>04-Nov-2024</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>72.09%</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>low percentage</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>This is a low mark, please retake the exam and improve your score. date is valid</t>
         </is>
       </c>
-      <c r="G3" s="3" t="n"/>
+      <c r="G3" s="4" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Truck Dock 15Ft</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>28-Oct-2024</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>83.95%</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>VALID</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>Approved Score. date is valid</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n"/>
+      <c r="G4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Castor Roller Deck </t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>21-Oct-2024</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>70.58%</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>low percentage</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>This is a low mark, please retake the exam and improve your score. date is valid</t>
         </is>
       </c>
-      <c r="G5" s="3" t="n"/>
+      <c r="G5" s="4" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr"/>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr"/>
+      <c r="B6" s="3" t="inlineStr"/>
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>TOTAL AVERAGE</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>75.54%</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr"/>
-      <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="n"/>
+      <c r="E6" s="3" t="inlineStr"/>
+      <c r="F6" s="3" t="inlineStr"/>
+      <c r="G6" s="3" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
